--- a/biology/Botanique/Prunus_salicina/Prunus_salicina.xlsx
+++ b/biology/Botanique/Prunus_salicina/Prunus_salicina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunier japonais, Prunier du Japon
 Prunus salicina, le prunier japonais (ou prunier du Japon), est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un petit arbre à feuilles caduques originaire de Chine et poussant aussi en Corée et au Japon. Il est cultivé pour ses fruits consommés frais.
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prunier du Japon peut mesurer jusqu'à 12 m de haut. Ses rameaux sont brun-marron.
 Ses feuilles oblongues, à bords doublement crénelés mesurent 6 à 12 cm de long et 2,5 à 5 cm de large. Le pétiole de 1-2 cm de long porte deux nectaires.
@@ -552,10 +566,12 @@
           <t>Caractères distinctifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le P. salicina est un arbre qui en général, est plus petit et vit moins longtemps que le prunier européen. Il donne une floraison très précoce et très abondante. Les fleurs sensibles aux gelées printanières, en font un arbre adapté aux climats à hiver doux.
-Les fruits du Prunus salicina sont plus gros, plus ronds et plus fermes que ceux du prunier européen (P. domestica)[1]. Le noyau adhère à la chair alors que celui du prunier domestique est libre.
+Les fruits du Prunus salicina sont plus gros, plus ronds et plus fermes que ceux du prunier européen (P. domestica). Le noyau adhère à la chair alors que celui du prunier domestique est libre.
 Le Prunus salicina s'hybride bien avec le prunier myrobolan (P. cerasifera) ou avec les pruniers américains (section Prunocerasus).
 De nombreux cultivars ont été obtenus par croisement qui ont pour noms : Abondance, Santa Rosa (cultivar japonais très répandu, donnant des fruits moyens à gros, pourpres, avec des fleurs autofertiles), Satsuma (cultivar à fruits petits à moyens, demandant Santa Rosa pour la pollinisation), Burbank, Shiro, Beauty, Gold, Metley, Red Beaut, Ozark Premier.
 Le Prunus salicina et ses hybrides ne sont pas pollinisés par le prunier européen et inversement. De plus, il est le plus souvent autostérile. La pollinisation croisée se fait par les abeilles.
@@ -589,12 +605,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prunus salicina pousse dans les forêts peu denses, en lisières des bois et le long des chemins.
-C'est une espèce indigène de Chine[2], répandue principalement dans les régions subtropicales du sud (Guangdong, Guangxi, Fujian, Sichuan) mais aussi vers le nord jusqu'au Hebei et Heilongjiang. Il croit aussi au Laos, Myanmar et Viêt Nam[3].
-Ce prunier originaire de Chine fut importé au Japon il y a entre 200 et 400 ans[1]. Son nom français de « prunier du Japon » (via l'anglais Japanese plum) vient du fait qu'il fut ensuite importé aux États-Unis à partir du Japon vers 1870.
-Il est actuellement cultivé dans de multiples régions du monde, mais principalement en Chine, en Californie, au Chili, en Afrique du Sud, en Italie et Espagne. En France, il représente de 25 à 30 % des surfaces de prunes de table[pas clair]. Il est surtout présent dans le Sud-Ouest, avec une surface cultivée[4] se situant autour de 1 500 ha et une production de 16 000 tonnes.
+C'est une espèce indigène de Chine, répandue principalement dans les régions subtropicales du sud (Guangdong, Guangxi, Fujian, Sichuan) mais aussi vers le nord jusqu'au Hebei et Heilongjiang. Il croit aussi au Laos, Myanmar et Viêt Nam.
+Ce prunier originaire de Chine fut importé au Japon il y a entre 200 et 400 ans. Son nom français de « prunier du Japon » (via l'anglais Japanese plum) vient du fait qu'il fut ensuite importé aux États-Unis à partir du Japon vers 1870.
+Il est actuellement cultivé dans de multiples régions du monde, mais principalement en Chine, en Californie, au Chili, en Afrique du Sud, en Italie et Espagne. En France, il représente de 25 à 30 % des surfaces de prunes de table[pas clair]. Il est surtout présent dans le Sud-Ouest, avec une surface cultivée se situant autour de 1 500 ha et une production de 16 000 tonnes.
 </t>
         </is>
       </c>
@@ -623,7 +641,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La prune du Japon est consommée fraîche.
 En Chine, on fabrique des bonbons à la prune, réputés bons pour la digestion. On en fait également des fruits confits qui sont vendus aromatisés avec du sucre, du sel, ou de la réglisse.
@@ -656,9 +676,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom d'espèce provient du mot Latin du saule.[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'espèce provient du mot Latin du saule.
 </t>
         </is>
       </c>
@@ -687,7 +709,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prunus triflora Roxb.
 Prunus thibetica Franch.</t>
